--- a/src/test/resources/DataTest/Category.xlsx
+++ b/src/test/resources/DataTest/Category.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HangDriver\project\Project_nopCommerce\src\test\resources\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A197B5F1-3D5B-4124-A951-E514845E88E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74411BE8-E2A6-4A1A-BFBF-4805987CF3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9D55CE27-C8DF-4DCA-BF65-9611EB5E7CF6}"/>
   </bookViews>
@@ -104,7 +104,7 @@
     <t>Administrators</t>
   </si>
   <si>
-    <t>Computering</t>
+    <t>Computers</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,7 +580,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="K8:L10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
